--- a/doc/Ke hoach KLTN.xlsx
+++ b/doc/Ke hoach KLTN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="0" windowWidth="19320" windowHeight="8340"/>
+    <workbookView xWindow="2340" yWindow="0" windowWidth="19320" windowHeight="8235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Kehoach thuc hien V1" sheetId="1" r:id="rId1"/>
@@ -20,26 +20,13 @@
     <definedName name="PeriodInPlan">'Kehoach thuc hien V1'!A$11=MEDIAN('Kehoach thuc hien V1'!A$11,'Kehoach thuc hien V1'!$C1,'Kehoach thuc hien V1'!$C1+'Kehoach thuc hien V1'!$D1-1)</definedName>
     <definedName name="Plan">PeriodInPlan*('Kehoach thuc hien V1'!$C1&gt;0)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
   <si>
     <t>KẾ HOẠCH THỰC HIỆN ĐỒ ÁN</t>
   </si>
@@ -226,11 +213,38 @@
   <si>
     <t>Xây dựng chức năng gửi ứng viên về mail công ty</t>
   </si>
+  <si>
+    <t>Xây dựng chức năng Quản lý bài tuyển dụng</t>
+  </si>
+  <si>
+    <t>Xây dựng chức năng Quản lý ứng viên</t>
+  </si>
+  <si>
+    <t>Xây dựng chức năng Tìm nhà tuyển dụng</t>
+  </si>
+  <si>
+    <t>Xây dựng chức năng Tìm người tìm việc</t>
+  </si>
+  <si>
+    <t>Xây dựng chức năng Khóa tài khoản</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa chức năng đăng bài tuyển dụng (front-end)</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa chức năng Quản lý công ty (front-end - back-end)</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa chức năng Tìm kiếm bài tuyển dụng (front-end - back-end)</t>
+  </si>
+  <si>
+    <t>Kiểm tra hệ thống</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -806,6 +820,12 @@
     <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -820,12 +840,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -842,7 +856,7 @@
     <cellStyle name="Style 1" xfId="9"/>
     <cellStyle name="Style 2" xfId="10"/>
   </cellStyles>
-  <dxfs count="650">
+  <dxfs count="393">
     <dxf>
       <fill>
         <patternFill patternType="lightUp">
@@ -910,6 +924,54 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="lightUp">
           <fgColor theme="7"/>
           <bgColor auto="1"/>
@@ -4413,54 +4475,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="lightUp">
           <fgColor theme="7"/>
           <bgColor auto="1"/>
@@ -4526,6 +4540,54 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="lightUp">
           <fgColor theme="7"/>
           <bgColor auto="1"/>
@@ -6287,34 +6349,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -6326,3653 +6360,8 @@
           <color theme="9" tint="-0.24994659260841701"/>
         </right>
         <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
           <color theme="7"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
         <vertical/>
         <horizontal/>
       </border>
@@ -10071,7 +6460,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1029"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10330,7 +6719,7 @@
   </sheetPr>
   <dimension ref="B2:DL39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="8" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B3" sqref="B3"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
@@ -10352,22 +6741,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:116" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
     </row>
     <row r="3" spans="2:116" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
       <c r="H3" s="16" t="s">
         <v>1</v>
       </c>
@@ -10392,12 +6781,12 @@
       <c r="AJ3" s="14"/>
     </row>
     <row r="4" spans="2:116" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
       <c r="W4" s="23"/>
       <c r="X4" s="24" t="s">
         <v>4</v>
@@ -10489,22 +6878,22 @@
       <c r="AV8" s="14"/>
     </row>
     <row r="9" spans="2:116" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="62" t="s">
+      <c r="G9" s="64" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="37"/>
@@ -10515,12 +6904,12 @@
       <c r="AV9" s="14"/>
     </row>
     <row r="10" spans="2:116" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="63"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="62"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="64"/>
       <c r="H10" s="37"/>
       <c r="I10" s="37" t="s">
         <v>14</v>
@@ -11083,7 +7472,7 @@
       <c r="C24" s="51">
         <v>44119</v>
       </c>
-      <c r="D24" s="66">
+      <c r="D24" s="61">
         <v>1</v>
       </c>
       <c r="E24" s="42">
@@ -11146,7 +7535,7 @@
       <c r="C27" s="51">
         <v>44122</v>
       </c>
-      <c r="D27" s="66">
+      <c r="D27" s="61">
         <v>1</v>
       </c>
       <c r="E27" s="42">
@@ -11167,7 +7556,7 @@
       <c r="C28" s="51">
         <v>44124</v>
       </c>
-      <c r="D28" s="66">
+      <c r="D28" s="61">
         <v>2</v>
       </c>
       <c r="E28" s="42">
@@ -11397,1309 +7786,1304 @@
     <mergeCell ref="F9:F10"/>
   </mergeCells>
   <conditionalFormatting sqref="I12:BP37">
-    <cfRule type="expression" dxfId="649" priority="407">
+    <cfRule type="expression" dxfId="392" priority="407">
       <formula>I$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="648" priority="411">
+    <cfRule type="expression" dxfId="391" priority="411">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="647" priority="412">
+    <cfRule type="expression" dxfId="390" priority="412">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:CT11">
-    <cfRule type="expression" dxfId="645" priority="408">
+    <cfRule type="expression" dxfId="389" priority="408">
       <formula>I$11=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ12:BQ37">
-    <cfRule type="expression" dxfId="644" priority="393">
+    <cfRule type="expression" dxfId="388" priority="393">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="643" priority="394">
+    <cfRule type="expression" dxfId="387" priority="394">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="642" priority="395">
+    <cfRule type="expression" dxfId="386" priority="395">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="641" priority="396">
+    <cfRule type="expression" dxfId="385" priority="396">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="640" priority="397">
+    <cfRule type="expression" dxfId="384" priority="397">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="639" priority="398">
+    <cfRule type="expression" dxfId="383" priority="398">
       <formula>BQ$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="638" priority="399">
+    <cfRule type="expression" dxfId="382" priority="399">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="637" priority="400">
+    <cfRule type="expression" dxfId="381" priority="400">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS12:BS37">
-    <cfRule type="expression" dxfId="636" priority="369">
+    <cfRule type="expression" dxfId="380" priority="369">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="635" priority="370">
+    <cfRule type="expression" dxfId="379" priority="370">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="634" priority="371">
+    <cfRule type="expression" dxfId="378" priority="371">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="633" priority="372">
+    <cfRule type="expression" dxfId="377" priority="372">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="632" priority="373">
+    <cfRule type="expression" dxfId="376" priority="373">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="631" priority="374">
+    <cfRule type="expression" dxfId="375" priority="374">
       <formula>BS$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="630" priority="375">
+    <cfRule type="expression" dxfId="374" priority="375">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="629" priority="376">
+    <cfRule type="expression" dxfId="373" priority="376">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU12:BU37">
-    <cfRule type="expression" dxfId="628" priority="361">
+    <cfRule type="expression" dxfId="372" priority="361">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="627" priority="362">
+    <cfRule type="expression" dxfId="371" priority="362">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="626" priority="363">
+    <cfRule type="expression" dxfId="370" priority="363">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="625" priority="364">
+    <cfRule type="expression" dxfId="369" priority="364">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="624" priority="365">
+    <cfRule type="expression" dxfId="368" priority="365">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="623" priority="366">
+    <cfRule type="expression" dxfId="367" priority="366">
       <formula>BU$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="622" priority="367">
+    <cfRule type="expression" dxfId="366" priority="367">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="621" priority="368">
+    <cfRule type="expression" dxfId="365" priority="368">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW12:BW37">
-    <cfRule type="expression" dxfId="620" priority="353">
+    <cfRule type="expression" dxfId="364" priority="353">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="619" priority="354">
+    <cfRule type="expression" dxfId="363" priority="354">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="618" priority="355">
+    <cfRule type="expression" dxfId="362" priority="355">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="617" priority="356">
+    <cfRule type="expression" dxfId="361" priority="356">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="616" priority="357">
+    <cfRule type="expression" dxfId="360" priority="357">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="615" priority="358">
+    <cfRule type="expression" dxfId="359" priority="358">
       <formula>BW$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="614" priority="359">
+    <cfRule type="expression" dxfId="358" priority="359">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="613" priority="360">
+    <cfRule type="expression" dxfId="357" priority="360">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY12:BY37">
-    <cfRule type="expression" dxfId="612" priority="345">
+    <cfRule type="expression" dxfId="356" priority="345">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="611" priority="346">
+    <cfRule type="expression" dxfId="355" priority="346">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="610" priority="347">
+    <cfRule type="expression" dxfId="354" priority="347">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="609" priority="348">
+    <cfRule type="expression" dxfId="353" priority="348">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="608" priority="349">
+    <cfRule type="expression" dxfId="352" priority="349">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="607" priority="350">
+    <cfRule type="expression" dxfId="351" priority="350">
       <formula>BY$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="606" priority="351">
+    <cfRule type="expression" dxfId="350" priority="351">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="605" priority="352">
+    <cfRule type="expression" dxfId="349" priority="352">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA12:CA37">
-    <cfRule type="expression" dxfId="604" priority="337">
+    <cfRule type="expression" dxfId="348" priority="337">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="603" priority="338">
+    <cfRule type="expression" dxfId="347" priority="338">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="602" priority="339">
+    <cfRule type="expression" dxfId="346" priority="339">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="601" priority="340">
+    <cfRule type="expression" dxfId="345" priority="340">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="600" priority="341">
+    <cfRule type="expression" dxfId="344" priority="341">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="599" priority="342">
+    <cfRule type="expression" dxfId="343" priority="342">
       <formula>CA$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="598" priority="343">
+    <cfRule type="expression" dxfId="342" priority="343">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="597" priority="344">
+    <cfRule type="expression" dxfId="341" priority="344">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CC12:CC37">
-    <cfRule type="expression" dxfId="596" priority="329">
+    <cfRule type="expression" dxfId="340" priority="329">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="595" priority="330">
+    <cfRule type="expression" dxfId="339" priority="330">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="594" priority="331">
+    <cfRule type="expression" dxfId="338" priority="331">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="593" priority="332">
+    <cfRule type="expression" dxfId="337" priority="332">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="592" priority="333">
+    <cfRule type="expression" dxfId="336" priority="333">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="591" priority="334">
+    <cfRule type="expression" dxfId="335" priority="334">
       <formula>CC$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="590" priority="335">
+    <cfRule type="expression" dxfId="334" priority="335">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="589" priority="336">
+    <cfRule type="expression" dxfId="333" priority="336">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE12:CE37">
-    <cfRule type="expression" dxfId="588" priority="321">
+    <cfRule type="expression" dxfId="332" priority="321">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="587" priority="322">
+    <cfRule type="expression" dxfId="331" priority="322">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="586" priority="323">
+    <cfRule type="expression" dxfId="330" priority="323">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="585" priority="324">
+    <cfRule type="expression" dxfId="329" priority="324">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="584" priority="325">
+    <cfRule type="expression" dxfId="328" priority="325">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="583" priority="326">
+    <cfRule type="expression" dxfId="327" priority="326">
       <formula>CE$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="582" priority="327">
+    <cfRule type="expression" dxfId="326" priority="327">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="581" priority="328">
+    <cfRule type="expression" dxfId="325" priority="328">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CG12:CG37">
-    <cfRule type="expression" dxfId="580" priority="313">
+    <cfRule type="expression" dxfId="324" priority="313">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="579" priority="314">
+    <cfRule type="expression" dxfId="323" priority="314">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="578" priority="315">
+    <cfRule type="expression" dxfId="322" priority="315">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="577" priority="316">
+    <cfRule type="expression" dxfId="321" priority="316">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="576" priority="317">
+    <cfRule type="expression" dxfId="320" priority="317">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="575" priority="318">
+    <cfRule type="expression" dxfId="319" priority="318">
       <formula>CG$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="574" priority="319">
+    <cfRule type="expression" dxfId="318" priority="319">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="573" priority="320">
+    <cfRule type="expression" dxfId="317" priority="320">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CI12:CI37">
-    <cfRule type="expression" dxfId="572" priority="305">
+    <cfRule type="expression" dxfId="316" priority="305">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="571" priority="306">
+    <cfRule type="expression" dxfId="315" priority="306">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="570" priority="307">
+    <cfRule type="expression" dxfId="314" priority="307">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="569" priority="308">
+    <cfRule type="expression" dxfId="313" priority="308">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="568" priority="309">
+    <cfRule type="expression" dxfId="312" priority="309">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="567" priority="310">
+    <cfRule type="expression" dxfId="311" priority="310">
       <formula>CI$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="566" priority="311">
+    <cfRule type="expression" dxfId="310" priority="311">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="565" priority="312">
+    <cfRule type="expression" dxfId="309" priority="312">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CK12:CK37">
-    <cfRule type="expression" dxfId="564" priority="297">
+    <cfRule type="expression" dxfId="308" priority="297">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="563" priority="298">
+    <cfRule type="expression" dxfId="307" priority="298">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="562" priority="299">
+    <cfRule type="expression" dxfId="306" priority="299">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="561" priority="300">
+    <cfRule type="expression" dxfId="305" priority="300">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="560" priority="301">
+    <cfRule type="expression" dxfId="304" priority="301">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="559" priority="302">
+    <cfRule type="expression" dxfId="303" priority="302">
       <formula>CK$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="558" priority="303">
+    <cfRule type="expression" dxfId="302" priority="303">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="557" priority="304">
+    <cfRule type="expression" dxfId="301" priority="304">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM12:CM37">
-    <cfRule type="expression" dxfId="556" priority="289">
+    <cfRule type="expression" dxfId="300" priority="289">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="555" priority="290">
+    <cfRule type="expression" dxfId="299" priority="290">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="554" priority="291">
+    <cfRule type="expression" dxfId="298" priority="291">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="553" priority="292">
+    <cfRule type="expression" dxfId="297" priority="292">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="552" priority="293">
+    <cfRule type="expression" dxfId="296" priority="293">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="551" priority="294">
+    <cfRule type="expression" dxfId="295" priority="294">
       <formula>CM$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="550" priority="295">
+    <cfRule type="expression" dxfId="294" priority="295">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="549" priority="296">
+    <cfRule type="expression" dxfId="293" priority="296">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CO12:CO37">
-    <cfRule type="expression" dxfId="548" priority="281">
+    <cfRule type="expression" dxfId="292" priority="281">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="547" priority="282">
+    <cfRule type="expression" dxfId="291" priority="282">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="546" priority="283">
+    <cfRule type="expression" dxfId="290" priority="283">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="545" priority="284">
+    <cfRule type="expression" dxfId="289" priority="284">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="544" priority="285">
+    <cfRule type="expression" dxfId="288" priority="285">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="543" priority="286">
+    <cfRule type="expression" dxfId="287" priority="286">
       <formula>CO$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="542" priority="287">
+    <cfRule type="expression" dxfId="286" priority="287">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="541" priority="288">
+    <cfRule type="expression" dxfId="285" priority="288">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CQ12:CQ37">
-    <cfRule type="expression" dxfId="540" priority="273">
+    <cfRule type="expression" dxfId="284" priority="273">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="539" priority="274">
+    <cfRule type="expression" dxfId="283" priority="274">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="538" priority="275">
+    <cfRule type="expression" dxfId="282" priority="275">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="537" priority="276">
+    <cfRule type="expression" dxfId="281" priority="276">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="536" priority="277">
+    <cfRule type="expression" dxfId="280" priority="277">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="535" priority="278">
+    <cfRule type="expression" dxfId="279" priority="278">
       <formula>CQ$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="534" priority="279">
+    <cfRule type="expression" dxfId="278" priority="279">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="533" priority="280">
+    <cfRule type="expression" dxfId="277" priority="280">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CS12:CS37">
-    <cfRule type="expression" dxfId="532" priority="265">
+    <cfRule type="expression" dxfId="276" priority="265">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="531" priority="266">
+    <cfRule type="expression" dxfId="275" priority="266">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="530" priority="267">
+    <cfRule type="expression" dxfId="274" priority="267">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="529" priority="268">
+    <cfRule type="expression" dxfId="273" priority="268">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="528" priority="269">
+    <cfRule type="expression" dxfId="272" priority="269">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="527" priority="270">
+    <cfRule type="expression" dxfId="271" priority="270">
       <formula>CS$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="526" priority="271">
+    <cfRule type="expression" dxfId="270" priority="271">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="525" priority="272">
+    <cfRule type="expression" dxfId="269" priority="272">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:CT37">
-    <cfRule type="expression" dxfId="524" priority="401">
+    <cfRule type="expression" dxfId="268" priority="401">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="523" priority="403">
+    <cfRule type="expression" dxfId="267" priority="403">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="522" priority="404">
+    <cfRule type="expression" dxfId="266" priority="404">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="521" priority="405">
+    <cfRule type="expression" dxfId="265" priority="405">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="520" priority="406">
+    <cfRule type="expression" dxfId="264" priority="406">
       <formula>Plan</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="519" priority="262">
+    <cfRule type="expression" dxfId="263" priority="262">
       <formula>B$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="518" priority="263">
+    <cfRule type="expression" dxfId="262" priority="263">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="517" priority="264">
+    <cfRule type="expression" dxfId="261" priority="264">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="516" priority="257">
+    <cfRule type="expression" dxfId="260" priority="257">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="515" priority="258">
+    <cfRule type="expression" dxfId="259" priority="258">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="514" priority="259">
+    <cfRule type="expression" dxfId="258" priority="259">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="513" priority="260">
+    <cfRule type="expression" dxfId="257" priority="260">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="512" priority="261">
+    <cfRule type="expression" dxfId="256" priority="261">
       <formula>Plan</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:BP38">
-    <cfRule type="expression" dxfId="511" priority="254">
+    <cfRule type="expression" dxfId="255" priority="254">
       <formula>I$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="510" priority="255">
+    <cfRule type="expression" dxfId="254" priority="255">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="509" priority="256">
+    <cfRule type="expression" dxfId="253" priority="256">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ38">
-    <cfRule type="expression" dxfId="505" priority="241">
+    <cfRule type="expression" dxfId="252" priority="241">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="504" priority="242">
+    <cfRule type="expression" dxfId="251" priority="242">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="503" priority="243">
+    <cfRule type="expression" dxfId="250" priority="243">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="502" priority="244">
+    <cfRule type="expression" dxfId="249" priority="244">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="501" priority="245">
+    <cfRule type="expression" dxfId="248" priority="245">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="500" priority="246">
+    <cfRule type="expression" dxfId="247" priority="246">
       <formula>BQ$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="499" priority="247">
+    <cfRule type="expression" dxfId="246" priority="247">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="498" priority="248">
+    <cfRule type="expression" dxfId="245" priority="248">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS38">
-    <cfRule type="expression" dxfId="489" priority="233">
+    <cfRule type="expression" dxfId="244" priority="233">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="488" priority="234">
+    <cfRule type="expression" dxfId="243" priority="234">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="487" priority="235">
+    <cfRule type="expression" dxfId="242" priority="235">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="486" priority="236">
+    <cfRule type="expression" dxfId="241" priority="236">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="485" priority="237">
+    <cfRule type="expression" dxfId="240" priority="237">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="484" priority="238">
+    <cfRule type="expression" dxfId="239" priority="238">
       <formula>BS$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="483" priority="239">
+    <cfRule type="expression" dxfId="238" priority="239">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="482" priority="240">
+    <cfRule type="expression" dxfId="237" priority="240">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU38">
-    <cfRule type="expression" dxfId="473" priority="225">
+    <cfRule type="expression" dxfId="236" priority="225">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="472" priority="226">
+    <cfRule type="expression" dxfId="235" priority="226">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="471" priority="227">
+    <cfRule type="expression" dxfId="234" priority="227">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="470" priority="228">
+    <cfRule type="expression" dxfId="233" priority="228">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="469" priority="229">
+    <cfRule type="expression" dxfId="232" priority="229">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="468" priority="230">
+    <cfRule type="expression" dxfId="231" priority="230">
       <formula>BU$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="467" priority="231">
+    <cfRule type="expression" dxfId="230" priority="231">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="466" priority="232">
+    <cfRule type="expression" dxfId="229" priority="232">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW38">
-    <cfRule type="expression" dxfId="457" priority="217">
+    <cfRule type="expression" dxfId="228" priority="217">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="456" priority="218">
+    <cfRule type="expression" dxfId="227" priority="218">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="455" priority="219">
+    <cfRule type="expression" dxfId="226" priority="219">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="454" priority="220">
+    <cfRule type="expression" dxfId="225" priority="220">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="453" priority="221">
+    <cfRule type="expression" dxfId="224" priority="221">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="452" priority="222">
+    <cfRule type="expression" dxfId="223" priority="222">
       <formula>BW$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="451" priority="223">
+    <cfRule type="expression" dxfId="222" priority="223">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="450" priority="224">
+    <cfRule type="expression" dxfId="221" priority="224">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY38">
-    <cfRule type="expression" dxfId="441" priority="209">
+    <cfRule type="expression" dxfId="220" priority="209">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="440" priority="210">
+    <cfRule type="expression" dxfId="219" priority="210">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="439" priority="211">
+    <cfRule type="expression" dxfId="218" priority="211">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="438" priority="212">
+    <cfRule type="expression" dxfId="217" priority="212">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="437" priority="213">
+    <cfRule type="expression" dxfId="216" priority="213">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="214">
+    <cfRule type="expression" dxfId="215" priority="214">
       <formula>BY$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="435" priority="215">
+    <cfRule type="expression" dxfId="214" priority="215">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="434" priority="216">
+    <cfRule type="expression" dxfId="213" priority="216">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA38">
-    <cfRule type="expression" dxfId="425" priority="201">
+    <cfRule type="expression" dxfId="212" priority="201">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="424" priority="202">
+    <cfRule type="expression" dxfId="211" priority="202">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="423" priority="203">
+    <cfRule type="expression" dxfId="210" priority="203">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="422" priority="204">
+    <cfRule type="expression" dxfId="209" priority="204">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="421" priority="205">
+    <cfRule type="expression" dxfId="208" priority="205">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="420" priority="206">
+    <cfRule type="expression" dxfId="207" priority="206">
       <formula>CA$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="419" priority="207">
+    <cfRule type="expression" dxfId="206" priority="207">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="418" priority="208">
+    <cfRule type="expression" dxfId="205" priority="208">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CC38">
-    <cfRule type="expression" dxfId="409" priority="193">
+    <cfRule type="expression" dxfId="204" priority="193">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="194">
+    <cfRule type="expression" dxfId="203" priority="194">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="407" priority="195">
+    <cfRule type="expression" dxfId="202" priority="195">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="196">
+    <cfRule type="expression" dxfId="201" priority="196">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="405" priority="197">
+    <cfRule type="expression" dxfId="200" priority="197">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="404" priority="198">
+    <cfRule type="expression" dxfId="199" priority="198">
       <formula>CC$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="403" priority="199">
+    <cfRule type="expression" dxfId="198" priority="199">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="200">
+    <cfRule type="expression" dxfId="197" priority="200">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE38">
-    <cfRule type="expression" dxfId="393" priority="185">
+    <cfRule type="expression" dxfId="196" priority="185">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="392" priority="186">
+    <cfRule type="expression" dxfId="195" priority="186">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="391" priority="187">
+    <cfRule type="expression" dxfId="194" priority="187">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="188">
+    <cfRule type="expression" dxfId="193" priority="188">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="389" priority="189">
+    <cfRule type="expression" dxfId="192" priority="189">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="190">
+    <cfRule type="expression" dxfId="191" priority="190">
       <formula>CE$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="387" priority="191">
+    <cfRule type="expression" dxfId="190" priority="191">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="386" priority="192">
+    <cfRule type="expression" dxfId="189" priority="192">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CG38">
-    <cfRule type="expression" dxfId="377" priority="177">
+    <cfRule type="expression" dxfId="188" priority="177">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="376" priority="178">
+    <cfRule type="expression" dxfId="187" priority="178">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="375" priority="179">
+    <cfRule type="expression" dxfId="186" priority="179">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="374" priority="180">
+    <cfRule type="expression" dxfId="185" priority="180">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="181">
+    <cfRule type="expression" dxfId="184" priority="181">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="182">
+    <cfRule type="expression" dxfId="183" priority="182">
       <formula>CG$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="371" priority="183">
+    <cfRule type="expression" dxfId="182" priority="183">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="184">
+    <cfRule type="expression" dxfId="181" priority="184">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CI38">
-    <cfRule type="expression" dxfId="361" priority="169">
+    <cfRule type="expression" dxfId="180" priority="169">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="170">
+    <cfRule type="expression" dxfId="179" priority="170">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="359" priority="171">
+    <cfRule type="expression" dxfId="178" priority="171">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="172">
+    <cfRule type="expression" dxfId="177" priority="172">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="357" priority="173">
+    <cfRule type="expression" dxfId="176" priority="173">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="356" priority="174">
+    <cfRule type="expression" dxfId="175" priority="174">
       <formula>CI$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="175">
+    <cfRule type="expression" dxfId="174" priority="175">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="354" priority="176">
+    <cfRule type="expression" dxfId="173" priority="176">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CK38">
-    <cfRule type="expression" dxfId="345" priority="161">
+    <cfRule type="expression" dxfId="172" priority="161">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="344" priority="162">
+    <cfRule type="expression" dxfId="171" priority="162">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="343" priority="163">
+    <cfRule type="expression" dxfId="170" priority="163">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="164">
+    <cfRule type="expression" dxfId="169" priority="164">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="341" priority="165">
+    <cfRule type="expression" dxfId="168" priority="165">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="166">
+    <cfRule type="expression" dxfId="167" priority="166">
       <formula>CK$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="167">
+    <cfRule type="expression" dxfId="166" priority="167">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="338" priority="168">
+    <cfRule type="expression" dxfId="165" priority="168">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM38">
-    <cfRule type="expression" dxfId="329" priority="153">
+    <cfRule type="expression" dxfId="164" priority="153">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="154">
+    <cfRule type="expression" dxfId="163" priority="154">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="327" priority="155">
+    <cfRule type="expression" dxfId="162" priority="155">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="156">
+    <cfRule type="expression" dxfId="161" priority="156">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="157">
+    <cfRule type="expression" dxfId="160" priority="157">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="158">
+    <cfRule type="expression" dxfId="159" priority="158">
       <formula>CM$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="323" priority="159">
+    <cfRule type="expression" dxfId="158" priority="159">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="160">
+    <cfRule type="expression" dxfId="157" priority="160">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CO38">
-    <cfRule type="expression" dxfId="313" priority="145">
+    <cfRule type="expression" dxfId="156" priority="145">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="146">
+    <cfRule type="expression" dxfId="155" priority="146">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="311" priority="147">
+    <cfRule type="expression" dxfId="154" priority="147">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="148">
+    <cfRule type="expression" dxfId="153" priority="148">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="149">
+    <cfRule type="expression" dxfId="152" priority="149">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="308" priority="150">
+    <cfRule type="expression" dxfId="151" priority="150">
       <formula>CO$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="151">
+    <cfRule type="expression" dxfId="150" priority="151">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="152">
+    <cfRule type="expression" dxfId="149" priority="152">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CQ38">
-    <cfRule type="expression" dxfId="297" priority="137">
+    <cfRule type="expression" dxfId="148" priority="137">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="296" priority="138">
+    <cfRule type="expression" dxfId="147" priority="138">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="139">
+    <cfRule type="expression" dxfId="146" priority="139">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="140">
+    <cfRule type="expression" dxfId="145" priority="140">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="293" priority="141">
+    <cfRule type="expression" dxfId="144" priority="141">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="142">
+    <cfRule type="expression" dxfId="143" priority="142">
       <formula>CQ$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="143">
+    <cfRule type="expression" dxfId="142" priority="143">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="144">
+    <cfRule type="expression" dxfId="141" priority="144">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CS38">
-    <cfRule type="expression" dxfId="281" priority="129">
+    <cfRule type="expression" dxfId="140" priority="129">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="130">
+    <cfRule type="expression" dxfId="139" priority="130">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="279" priority="131">
+    <cfRule type="expression" dxfId="138" priority="131">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="132">
+    <cfRule type="expression" dxfId="137" priority="132">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="133">
+    <cfRule type="expression" dxfId="136" priority="133">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="134">
+    <cfRule type="expression" dxfId="135" priority="134">
       <formula>CS$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="135">
+    <cfRule type="expression" dxfId="134" priority="135">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="136">
+    <cfRule type="expression" dxfId="133" priority="136">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:CT38">
-    <cfRule type="expression" dxfId="265" priority="249">
+    <cfRule type="expression" dxfId="132" priority="249">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="250">
+    <cfRule type="expression" dxfId="131" priority="250">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="263" priority="251">
+    <cfRule type="expression" dxfId="130" priority="251">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="252">
+    <cfRule type="expression" dxfId="129" priority="252">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="253">
+    <cfRule type="expression" dxfId="128" priority="253">
       <formula>Plan</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:BP39">
-    <cfRule type="expression" dxfId="255" priority="126">
+    <cfRule type="expression" dxfId="127" priority="126">
       <formula>I$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="127">
+    <cfRule type="expression" dxfId="126" priority="127">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="128">
+    <cfRule type="expression" dxfId="125" priority="128">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ39">
-    <cfRule type="expression" dxfId="249" priority="113">
+    <cfRule type="expression" dxfId="124" priority="113">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="114">
+    <cfRule type="expression" dxfId="123" priority="114">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="115">
+    <cfRule type="expression" dxfId="122" priority="115">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="116">
+    <cfRule type="expression" dxfId="121" priority="116">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="245" priority="117">
+    <cfRule type="expression" dxfId="120" priority="117">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="118">
+    <cfRule type="expression" dxfId="119" priority="118">
       <formula>BQ$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="119">
+    <cfRule type="expression" dxfId="118" priority="119">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="120">
+    <cfRule type="expression" dxfId="117" priority="120">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS39">
-    <cfRule type="expression" dxfId="233" priority="105">
+    <cfRule type="expression" dxfId="116" priority="105">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="106">
+    <cfRule type="expression" dxfId="115" priority="106">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="107">
+    <cfRule type="expression" dxfId="114" priority="107">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="108">
+    <cfRule type="expression" dxfId="113" priority="108">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="109">
+    <cfRule type="expression" dxfId="112" priority="109">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="110">
+    <cfRule type="expression" dxfId="111" priority="110">
       <formula>BS$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="111">
+    <cfRule type="expression" dxfId="110" priority="111">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="112">
+    <cfRule type="expression" dxfId="109" priority="112">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU39">
-    <cfRule type="expression" dxfId="217" priority="97">
+    <cfRule type="expression" dxfId="108" priority="97">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="98">
+    <cfRule type="expression" dxfId="107" priority="98">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="215" priority="99">
+    <cfRule type="expression" dxfId="106" priority="99">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="100">
+    <cfRule type="expression" dxfId="105" priority="100">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="101">
+    <cfRule type="expression" dxfId="104" priority="101">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="102">
+    <cfRule type="expression" dxfId="103" priority="102">
       <formula>BU$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="103">
+    <cfRule type="expression" dxfId="102" priority="103">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="104">
+    <cfRule type="expression" dxfId="101" priority="104">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW39">
-    <cfRule type="expression" dxfId="201" priority="89">
+    <cfRule type="expression" dxfId="100" priority="89">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="90">
+    <cfRule type="expression" dxfId="99" priority="90">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="91">
+    <cfRule type="expression" dxfId="98" priority="91">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="92">
+    <cfRule type="expression" dxfId="97" priority="92">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="93">
+    <cfRule type="expression" dxfId="96" priority="93">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="94">
+    <cfRule type="expression" dxfId="95" priority="94">
       <formula>BW$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="95">
+    <cfRule type="expression" dxfId="94" priority="95">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="96">
+    <cfRule type="expression" dxfId="93" priority="96">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY39">
-    <cfRule type="expression" dxfId="185" priority="81">
+    <cfRule type="expression" dxfId="92" priority="81">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="82">
+    <cfRule type="expression" dxfId="91" priority="82">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="83">
+    <cfRule type="expression" dxfId="90" priority="83">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="84">
+    <cfRule type="expression" dxfId="89" priority="84">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="85">
+    <cfRule type="expression" dxfId="88" priority="85">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="86">
+    <cfRule type="expression" dxfId="87" priority="86">
       <formula>BY$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="87">
+    <cfRule type="expression" dxfId="86" priority="87">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="88">
+    <cfRule type="expression" dxfId="85" priority="88">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA39">
-    <cfRule type="expression" dxfId="169" priority="73">
+    <cfRule type="expression" dxfId="84" priority="73">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="74">
+    <cfRule type="expression" dxfId="83" priority="74">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="75">
+    <cfRule type="expression" dxfId="82" priority="75">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="76">
+    <cfRule type="expression" dxfId="81" priority="76">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="77">
+    <cfRule type="expression" dxfId="80" priority="77">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="78">
+    <cfRule type="expression" dxfId="79" priority="78">
       <formula>CA$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="79">
+    <cfRule type="expression" dxfId="78" priority="79">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="80">
+    <cfRule type="expression" dxfId="77" priority="80">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CC39">
-    <cfRule type="expression" dxfId="153" priority="65">
+    <cfRule type="expression" dxfId="76" priority="65">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="66">
+    <cfRule type="expression" dxfId="75" priority="66">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="67">
+    <cfRule type="expression" dxfId="74" priority="67">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="68">
+    <cfRule type="expression" dxfId="73" priority="68">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="69">
+    <cfRule type="expression" dxfId="72" priority="69">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="70">
+    <cfRule type="expression" dxfId="71" priority="70">
       <formula>CC$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="71">
+    <cfRule type="expression" dxfId="70" priority="71">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="72">
+    <cfRule type="expression" dxfId="69" priority="72">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE39">
-    <cfRule type="expression" dxfId="137" priority="57">
+    <cfRule type="expression" dxfId="68" priority="57">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="58">
+    <cfRule type="expression" dxfId="67" priority="58">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="59">
+    <cfRule type="expression" dxfId="66" priority="59">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="60">
+    <cfRule type="expression" dxfId="65" priority="60">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="61">
+    <cfRule type="expression" dxfId="64" priority="61">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="62">
+    <cfRule type="expression" dxfId="63" priority="62">
       <formula>CE$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="63">
+    <cfRule type="expression" dxfId="62" priority="63">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="64">
+    <cfRule type="expression" dxfId="61" priority="64">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CG39">
-    <cfRule type="expression" dxfId="121" priority="49">
+    <cfRule type="expression" dxfId="60" priority="49">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="50">
+    <cfRule type="expression" dxfId="59" priority="50">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="51">
+    <cfRule type="expression" dxfId="58" priority="51">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="52">
+    <cfRule type="expression" dxfId="57" priority="52">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="53">
+    <cfRule type="expression" dxfId="56" priority="53">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="54">
+    <cfRule type="expression" dxfId="55" priority="54">
       <formula>CG$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="55">
+    <cfRule type="expression" dxfId="54" priority="55">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="56">
+    <cfRule type="expression" dxfId="53" priority="56">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CI39">
-    <cfRule type="expression" dxfId="105" priority="41">
+    <cfRule type="expression" dxfId="52" priority="41">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="42">
+    <cfRule type="expression" dxfId="51" priority="42">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="43">
+    <cfRule type="expression" dxfId="50" priority="43">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="44">
+    <cfRule type="expression" dxfId="49" priority="44">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="45">
+    <cfRule type="expression" dxfId="48" priority="45">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="46">
+    <cfRule type="expression" dxfId="47" priority="46">
       <formula>CI$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="47">
+    <cfRule type="expression" dxfId="46" priority="47">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="48">
+    <cfRule type="expression" dxfId="45" priority="48">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CK39">
-    <cfRule type="expression" dxfId="89" priority="33">
+    <cfRule type="expression" dxfId="44" priority="33">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="34">
+    <cfRule type="expression" dxfId="43" priority="34">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="35">
+    <cfRule type="expression" dxfId="42" priority="35">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="36">
+    <cfRule type="expression" dxfId="41" priority="36">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="37">
+    <cfRule type="expression" dxfId="40" priority="37">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="38">
+    <cfRule type="expression" dxfId="39" priority="38">
       <formula>CK$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="39">
+    <cfRule type="expression" dxfId="38" priority="39">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="40">
+    <cfRule type="expression" dxfId="37" priority="40">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM39">
-    <cfRule type="expression" dxfId="73" priority="25">
+    <cfRule type="expression" dxfId="36" priority="25">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="26">
+    <cfRule type="expression" dxfId="35" priority="26">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="27">
+    <cfRule type="expression" dxfId="34" priority="27">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="28">
+    <cfRule type="expression" dxfId="33" priority="28">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="29">
+    <cfRule type="expression" dxfId="32" priority="29">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="30">
+    <cfRule type="expression" dxfId="31" priority="30">
       <formula>CM$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="31">
+    <cfRule type="expression" dxfId="30" priority="31">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="32">
+    <cfRule type="expression" dxfId="29" priority="32">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CO39">
-    <cfRule type="expression" dxfId="57" priority="17">
+    <cfRule type="expression" dxfId="28" priority="17">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="18">
+    <cfRule type="expression" dxfId="27" priority="18">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="19">
+    <cfRule type="expression" dxfId="26" priority="19">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="20">
+    <cfRule type="expression" dxfId="25" priority="20">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="21">
+    <cfRule type="expression" dxfId="24" priority="21">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="22">
+    <cfRule type="expression" dxfId="23" priority="22">
       <formula>CO$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="23">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="24">
+    <cfRule type="expression" dxfId="21" priority="24">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CQ39">
-    <cfRule type="expression" dxfId="41" priority="9">
+    <cfRule type="expression" dxfId="20" priority="9">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="10">
+    <cfRule type="expression" dxfId="19" priority="10">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="11">
+    <cfRule type="expression" dxfId="18" priority="11">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="12">
+    <cfRule type="expression" dxfId="17" priority="12">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="13">
+    <cfRule type="expression" dxfId="16" priority="13">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="14">
+    <cfRule type="expression" dxfId="15" priority="14">
       <formula>CQ$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="15">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="16">
+    <cfRule type="expression" dxfId="13" priority="16">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CS39">
-    <cfRule type="expression" dxfId="25" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="4">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="5">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="6">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>CS$11=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="8">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:CT39">
-    <cfRule type="expression" dxfId="9" priority="121">
+    <cfRule type="expression" dxfId="4" priority="121">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="122">
+    <cfRule type="expression" dxfId="3" priority="122">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="123">
+    <cfRule type="expression" dxfId="2" priority="123">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="124">
+    <cfRule type="expression" dxfId="1" priority="124">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="125">
+    <cfRule type="expression" dxfId="0" priority="125">
       <formula>Plan</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="32" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -12714,14 +9098,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="34.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -13103,7 +9487,7 @@
         <f>B23</f>
         <v>44128</v>
       </c>
-      <c r="D23" s="67">
+      <c r="D23" s="62">
         <v>44128</v>
       </c>
       <c r="E23" s="58" t="s">
@@ -13138,8 +9522,8 @@
         <v>44130</v>
       </c>
       <c r="C25" s="57">
-        <f>B25+1</f>
-        <v>44131</v>
+        <f>B25+4</f>
+        <v>44134</v>
       </c>
       <c r="D25" s="56"/>
       <c r="E25" s="58" t="s">
@@ -13152,12 +9536,12 @@
         <v>21</v>
       </c>
       <c r="B26" s="57">
-        <f>C25+1</f>
-        <v>44132</v>
+        <f>C25+2</f>
+        <v>44136</v>
       </c>
       <c r="C26" s="57">
-        <f>B26+3</f>
-        <v>44135</v>
+        <f>B26+2</f>
+        <v>44138</v>
       </c>
       <c r="D26" s="56"/>
       <c r="E26" s="58" t="s">
@@ -13170,12 +9554,12 @@
         <v>22</v>
       </c>
       <c r="B27" s="57">
-        <f>C26+1</f>
-        <v>44136</v>
+        <f t="shared" ref="B27:B36" si="0">C26+1</f>
+        <v>44139</v>
       </c>
       <c r="C27" s="57">
         <f>B27+3</f>
-        <v>44139</v>
+        <v>44142</v>
       </c>
       <c r="D27" s="56"/>
       <c r="E27" s="58" t="s">
@@ -13188,18 +9572,170 @@
         <v>23</v>
       </c>
       <c r="B28" s="57">
-        <f>C27+5</f>
-        <v>44144</v>
+        <f t="shared" si="0"/>
+        <v>44143</v>
       </c>
       <c r="C28" s="57">
-        <f>B28+1</f>
-        <v>44145</v>
+        <f>B28+3</f>
+        <v>44146</v>
       </c>
       <c r="D28" s="56"/>
       <c r="E28" s="58" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F28" s="56"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="56">
+        <f t="shared" ref="A29:A36" si="1">A28+1</f>
+        <v>24</v>
+      </c>
+      <c r="B29" s="57">
+        <f t="shared" si="0"/>
+        <v>44147</v>
+      </c>
+      <c r="C29" s="57">
+        <f>B29+3</f>
+        <v>44150</v>
+      </c>
+      <c r="D29" s="56"/>
+      <c r="E29" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="56"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="56">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B30" s="57">
+        <f t="shared" si="0"/>
+        <v>44151</v>
+      </c>
+      <c r="C30" s="57">
+        <f>B30+4</f>
+        <v>44155</v>
+      </c>
+      <c r="D30" s="56"/>
+      <c r="E30" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="56"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="56">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B31" s="57">
+        <f t="shared" si="0"/>
+        <v>44156</v>
+      </c>
+      <c r="C31" s="57">
+        <f>B31+3</f>
+        <v>44159</v>
+      </c>
+      <c r="D31" s="56"/>
+      <c r="E31" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="56"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="56">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B32" s="57">
+        <f t="shared" si="0"/>
+        <v>44160</v>
+      </c>
+      <c r="C32" s="57">
+        <f>B32+3</f>
+        <v>44163</v>
+      </c>
+      <c r="D32" s="56"/>
+      <c r="E32" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="56"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="56">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B33" s="57">
+        <f t="shared" si="0"/>
+        <v>44164</v>
+      </c>
+      <c r="C33" s="57">
+        <f>B33+3</f>
+        <v>44167</v>
+      </c>
+      <c r="D33" s="56"/>
+      <c r="E33" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="56"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="56">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B34" s="57">
+        <f t="shared" si="0"/>
+        <v>44168</v>
+      </c>
+      <c r="C34" s="57">
+        <f>B34+2</f>
+        <v>44170</v>
+      </c>
+      <c r="D34" s="56"/>
+      <c r="E34" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="56"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="56">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B35" s="57">
+        <f t="shared" si="0"/>
+        <v>44171</v>
+      </c>
+      <c r="C35" s="57">
+        <f>B35+3</f>
+        <v>44174</v>
+      </c>
+      <c r="D35" s="56"/>
+      <c r="E35" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" s="56"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="56">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B36" s="57">
+        <f t="shared" si="0"/>
+        <v>44175</v>
+      </c>
+      <c r="C36" s="57">
+        <f>B36+2</f>
+        <v>44177</v>
+      </c>
+      <c r="D36" s="56"/>
+      <c r="E36" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="1">
